--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E283AA-BDBA-2846-8E9E-B23F2ADC6DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C6891A-5E84-CA43-8A95-A23CA48E9860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1833,9 +1833,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>KCP</t>
-  </si>
-  <si>
     <t>Addressable</t>
   </si>
   <si>
@@ -1863,6 +1860,9 @@
   <si>
     <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KCP</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2788,7 +2788,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2800,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2824,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7">
         <v>20000</v>
@@ -2837,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2858,7 +2858,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2870,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2891,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2903,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2924,7 +2924,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2936,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3095,10 +3095,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C6891A-5E84-CA43-8A95-A23CA48E9860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31A59F-0276-4D45-96CF-630D0F1948CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31A59F-0276-4D45-96CF-630D0F1948CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4316753-7AE4-4F4F-ABB4-6A2517206885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
